--- a/docs/hardware/Helmoro_BoM_sheet_metals.xlsx
+++ b/docs/hardware/Helmoro_BoM_sheet_metals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHE\Documents\Git_Data\HelMoRo\docs\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266F76F9-00FA-4C9E-B540-C87D425878CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA0CD0B-6DA1-47D9-8483-0674C55B1F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D43A7108-50A9-4FCF-900B-676A8BDC7C7C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>QTY</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>Manufacturing type</t>
   </si>
   <si>
     <t>PRODUCT CODE</t>
@@ -121,9 +118,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Sheet metal</t>
-  </si>
-  <si>
     <t>Top Plate</t>
   </si>
   <si>
@@ -134,6 +128,9 @@
   </si>
   <si>
     <t>HEL-04-01000-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                   </t>
   </si>
 </sst>
 </file>
@@ -225,7 +222,263 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="463">
+  <dxfs count="413">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -246,648 +499,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -3772,19 +3383,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC433D18-8D56-470A-8DB2-FE2100CD4686}" name="Table1" displayName="Table1" ref="A1:G54" totalsRowShown="0" headerRowDxfId="0" dataDxfId="18" totalsRowDxfId="17">
-  <autoFilter ref="A1:G54" xr:uid="{AB8CB7B2-62CE-4583-9267-907B832DB447}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC433D18-8D56-470A-8DB2-FE2100CD4686}" name="Table1" displayName="Table1" ref="A1:F54" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14">
+  <autoFilter ref="A1:F54" xr:uid="{AB8CB7B2-62CE-4583-9267-907B832DB447}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F54">
     <sortCondition ref="A1:A54"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8C720362-16ED-4641-BAC4-38765F6008BF}" name="QTY" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{E4EF20A8-BAA7-4285-8E2C-1FF15F4D9DE0}" name="DOCUMENT-NR." dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{7C114C88-4C53-4A01-875E-42C9A5D3836B}" name="DESCRIPTION" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{F56A10FA-89C2-4781-AECC-93B30002C92E}" name="Manufacturing type" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{DC161508-7262-4AC6-90ED-F4CD4C38651A}" name="PRODUCT CODE" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{15467916-B419-479D-A3A9-C6B2B5C762DF}" name="SUPPLIER" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{2349CBB5-C81B-4DFD-9B9F-CC6E1EB0C9BF}" name="Price per unit (CHF)" dataDxfId="4" totalsRowDxfId="3"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{8C720362-16ED-4641-BAC4-38765F6008BF}" name="QTY" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{E4EF20A8-BAA7-4285-8E2C-1FF15F4D9DE0}" name="DOCUMENT-NR." dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{7C114C88-4C53-4A01-875E-42C9A5D3836B}" name="DESCRIPTION" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{DC161508-7262-4AC6-90ED-F4CD4C38651A}" name="PRODUCT CODE" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{15467916-B419-479D-A3A9-C6B2B5C762DF}" name="SUPPLIER" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{2349CBB5-C81B-4DFD-9B9F-CC6E1EB0C9BF}" name="Price per unit (CHF)" dataDxfId="3" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3799,9 +3409,9 @@
     <tableColumn id="3" xr3:uid="{A8C4F21C-CD18-4C55-8F37-A63DC3DADA2A}" name="Length [m]"/>
     <tableColumn id="4" xr3:uid="{58450646-C7B3-41F9-9EA9-C5AC13C9F0E1}" name="QTY to ZHR"/>
     <tableColumn id="5" xr3:uid="{7591EFD4-7391-4754-8536-9BFADAB2E4F8}" name="QTY to BOS"/>
-    <tableColumn id="6" xr3:uid="{62F124C5-9852-4F6A-9A5B-7833BB832B2B}" name="TOTAL QTY" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{62F124C5-9852-4F6A-9A5B-7833BB832B2B}" name="TOTAL QTY" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{96FA4321-6955-4909-B76A-703878A5516D}" name="Cost/part [CHF]"/>
-    <tableColumn id="8" xr3:uid="{F9E937AD-E464-40D7-87A7-E2D2618ABCD4}" name="Total [CHF]" totalsRowFunction="sum" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{F9E937AD-E464-40D7-87A7-E2D2618ABCD4}" name="Total [CHF]" totalsRowFunction="sum" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4104,10 +3714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C6E063-1877-40DA-BDBC-FD081DB60E9D}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4115,14 +3725,13 @@
     <col min="1" max="1" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4139,518 +3748,458 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>26</v>
+      <c r="E2" s="6" t="s">
+        <v>23</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="F2" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D39" s="6"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D41" s="5"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D43" s="5"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D44" s="6"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D49" s="5"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D51" s="6"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{2DB68C68-C8A3-4D36-85A2-312BD3E62D69}">
@@ -4659,1557 +4208,1389 @@
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="G25:G31">
-    <cfRule type="expression" dxfId="462" priority="845">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="461" priority="846">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="460" priority="847">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="459" priority="848">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:G13 G5 F6:G8 E12 G11:G12 F14:G16 G22 G33 F37:G40 G41 G43 F44:G44 G45:G46 G48 F23:G31 E42:G42 E47:G47 E43 E41 E33 A37:B54 A4:A36">
-    <cfRule type="expression" dxfId="458" priority="853">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="457" priority="854">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="456" priority="855">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="455" priority="856">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25:G31">
-    <cfRule type="expression" dxfId="454" priority="857">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="453" priority="858">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="452" priority="859">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="451" priority="860">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18 G52:G54 E4:G4 E10:G10 E17:G17 E19:G19 F20:G20 E21:G21 E9 G9 E35:G36">
-    <cfRule type="expression" dxfId="450" priority="869">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="449" priority="870">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="448" priority="871">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="447" priority="872">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="446" priority="1017">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="445" priority="1018">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="444" priority="1019">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="443" priority="1020">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="442" priority="685">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="441" priority="686">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="440" priority="687">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="439" priority="688">
+  <conditionalFormatting sqref="F25:F31">
+    <cfRule type="expression" dxfId="412" priority="845">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="411" priority="846">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="410" priority="847">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="409" priority="848">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:F13 F5 E6:F8 D12 F11:F12 E14:F16 F22 F33 E37:F40 F41 F43 E44:F44 F45:F46 F48 E23:F31 D42:F42 D47:F47 D43 D41 D33 A37:B54 A4:A36 C2:F3">
+    <cfRule type="expression" dxfId="408" priority="853">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="407" priority="854">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="406" priority="855">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="405" priority="856">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:F31">
+    <cfRule type="expression" dxfId="404" priority="857">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="403" priority="858">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="402" priority="859">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="401" priority="860">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18 F52:F54 D4:F4 D10:F10 D17:F17 D19:F19 E20:F20 D21:F21 D9 F9 D35:F36">
+    <cfRule type="expression" dxfId="400" priority="869">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="399" priority="870">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="398" priority="871">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="397" priority="872">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="expression" dxfId="396" priority="1017">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="395" priority="1018">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="394" priority="1019">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="393" priority="1020">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="438" priority="681">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="437" priority="682">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="436" priority="683">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="435" priority="684">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="434" priority="677">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="433" priority="678">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="432" priority="679">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="431" priority="680">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="430" priority="673">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="429" priority="674">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="428" priority="675">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="427" priority="676">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="426" priority="669">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="425" priority="670">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="424" priority="671">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="423" priority="672">
+    <cfRule type="expression" dxfId="392" priority="685">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="391" priority="686">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="390" priority="687">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="389" priority="688">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="388" priority="681">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="387" priority="682">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="386" priority="683">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="385" priority="684">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="384" priority="677">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="383" priority="678">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="382" priority="679">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="381" priority="680">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="380" priority="673">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="379" priority="674">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="378" priority="675">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="377" priority="676">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="376" priority="669">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="375" priority="670">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="374" priority="671">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="373" priority="672">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="372" priority="665">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="371" priority="666">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="370" priority="667">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="369" priority="668">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="422" priority="665">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="421" priority="666">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="420" priority="667">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="419" priority="668">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="418" priority="661">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="417" priority="662">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="416" priority="663">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="415" priority="664">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="414" priority="657">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="413" priority="658">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="412" priority="659">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="411" priority="660">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="410" priority="637">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="409" priority="638">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="408" priority="639">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="407" priority="640">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="406" priority="633">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="405" priority="634">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="404" priority="635">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="403" priority="636">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="402" priority="629">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="401" priority="630">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="400" priority="631">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="399" priority="632">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="398" priority="625">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="397" priority="626">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="396" priority="627">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="395" priority="628">
+    <cfRule type="expression" dxfId="368" priority="661">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="367" priority="662">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="366" priority="663">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="365" priority="664">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="364" priority="657">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="363" priority="658">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="362" priority="659">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="361" priority="660">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="360" priority="637">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="359" priority="638">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="358" priority="639">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="357" priority="640">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="356" priority="633">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="355" priority="634">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="354" priority="635">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="353" priority="636">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="352" priority="629">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="351" priority="630">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="350" priority="631">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="349" priority="632">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="394" priority="621">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="393" priority="622">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="392" priority="623">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="391" priority="624">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="390" priority="617">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="389" priority="618">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="388" priority="619">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="387" priority="620">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="386" priority="605">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="385" priority="606">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="384" priority="607">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="383" priority="608">
+    <cfRule type="expression" dxfId="348" priority="625">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="347" priority="626">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="346" priority="627">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="345" priority="628">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="344" priority="621">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="343" priority="622">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="342" priority="623">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="341" priority="624">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="340" priority="617">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="339" priority="618">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="338" priority="619">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="337" priority="620">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="382" priority="601">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="381" priority="602">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="380" priority="603">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="379" priority="604">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="378" priority="597">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="377" priority="598">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="376" priority="599">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="375" priority="600">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="374" priority="593">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="373" priority="594">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="372" priority="595">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="371" priority="596">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E26 E30:E31">
-    <cfRule type="expression" dxfId="370" priority="589">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="369" priority="590">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="368" priority="591">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="367" priority="592">
+    <cfRule type="expression" dxfId="336" priority="605">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="335" priority="606">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="334" priority="607">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="333" priority="608">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="332" priority="601">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="331" priority="602">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="330" priority="603">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="329" priority="604">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="328" priority="597">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="327" priority="598">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="326" priority="599">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="325" priority="600">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="324" priority="593">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="323" priority="594">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="322" priority="595">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="321" priority="596">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D26 D30:D31">
+    <cfRule type="expression" dxfId="320" priority="589">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="319" priority="590">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="591">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="592">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="316" priority="573">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="315" priority="574">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="314" priority="575">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="313" priority="576">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="366" priority="573">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="365" priority="574">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="364" priority="575">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="363" priority="576">
+    <cfRule type="expression" dxfId="312" priority="569">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="311" priority="570">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="310" priority="571">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="309" priority="572">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="362" priority="569">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="361" priority="570">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="360" priority="571">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="359" priority="572">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="358" priority="565">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="357" priority="566">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="356" priority="567">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="355" priority="568">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="expression" dxfId="354" priority="561">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="353" priority="562">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="352" priority="563">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="351" priority="564">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="350" priority="557">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="349" priority="558">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="348" priority="559">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="347" priority="560">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="346" priority="553">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="345" priority="554">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="344" priority="555">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="343" priority="556">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="342" priority="541">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="341" priority="542">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="340" priority="543">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="339" priority="544">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="338" priority="537">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="337" priority="538">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="336" priority="539">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="335" priority="540">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="expression" dxfId="334" priority="525">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="333" priority="526">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="332" priority="527">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="331" priority="528">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="expression" dxfId="330" priority="521">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="329" priority="522">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="328" priority="523">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="327" priority="524">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="expression" dxfId="326" priority="505">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="325" priority="506">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="324" priority="507">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="323" priority="508">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="322" priority="501">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="321" priority="502">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="320" priority="503">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="319" priority="504">
+    <cfRule type="expression" dxfId="308" priority="565">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="307" priority="566">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="306" priority="567">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="305" priority="568">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="expression" dxfId="304" priority="561">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="303" priority="562">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="302" priority="563">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="301" priority="564">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="300" priority="557">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="299" priority="558">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="298" priority="559">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="297" priority="560">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="expression" dxfId="296" priority="553">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="295" priority="554">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="294" priority="555">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="293" priority="556">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="292" priority="541">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="291" priority="542">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="290" priority="543">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="289" priority="544">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="288" priority="537">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="287" priority="538">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="286" priority="539">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="285" priority="540">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="expression" dxfId="284" priority="525">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="283" priority="526">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="282" priority="527">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="281" priority="528">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" dxfId="280" priority="521">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="279" priority="522">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="278" priority="523">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="277" priority="524">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" dxfId="276" priority="505">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="275" priority="506">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="274" priority="507">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="273" priority="508">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="272" priority="501">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="271" priority="502">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="503">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="269" priority="504">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="268" priority="489">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="267" priority="490">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="266" priority="491">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="265" priority="492">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="318" priority="489">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="317" priority="490">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="316" priority="491">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="315" priority="492">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="expression" dxfId="314" priority="485">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="313" priority="486">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="312" priority="487">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="311" priority="488">
+    <cfRule type="expression" dxfId="264" priority="485">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="263" priority="486">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="487">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="261" priority="488">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="260" priority="481">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="259" priority="482">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="483">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="257" priority="484">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="expression" dxfId="310" priority="481">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="309" priority="482">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="308" priority="483">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="307" priority="484">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="expression" dxfId="306" priority="477">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="305" priority="478">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="304" priority="479">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="303" priority="480">
+    <cfRule type="expression" dxfId="256" priority="477">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="255" priority="478">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="254" priority="479">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="253" priority="480">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="252" priority="469">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="251" priority="470">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="471">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="249" priority="472">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="302" priority="469">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="301" priority="470">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="300" priority="471">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="299" priority="472">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="expression" dxfId="298" priority="465">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="297" priority="466">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="296" priority="467">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="295" priority="468">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="expression" dxfId="294" priority="453">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="293" priority="454">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="292" priority="455">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="291" priority="456">
+    <cfRule type="expression" dxfId="248" priority="465">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="247" priority="466">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="467">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="245" priority="468">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="244" priority="453">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="243" priority="454">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="455">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="241" priority="456">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="240" priority="449">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="239" priority="450">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="451">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="237" priority="452">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="290" priority="449">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="289" priority="450">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="288" priority="451">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="287" priority="452">
+    <cfRule type="expression" dxfId="236" priority="445">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="235" priority="446">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="447">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="233" priority="448">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="expression" dxfId="286" priority="445">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="285" priority="446">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="284" priority="447">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="283" priority="448">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="282" priority="441">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="281" priority="442">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="280" priority="443">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="279" priority="444">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="278" priority="429">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="277" priority="430">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="276" priority="431">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="275" priority="432">
+    <cfRule type="expression" dxfId="232" priority="441">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="231" priority="442">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="443">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="229" priority="444">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="228" priority="429">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="227" priority="430">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="431">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="432">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="224" priority="425">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="223" priority="426">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="427">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="221" priority="428">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="274" priority="425">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="273" priority="426">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="272" priority="427">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="271" priority="428">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="expression" dxfId="270" priority="421">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="269" priority="422">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="268" priority="423">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="267" priority="424">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="expression" dxfId="266" priority="405">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="265" priority="406">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="264" priority="407">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="263" priority="408">
+    <cfRule type="expression" dxfId="220" priority="421">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="422">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="423">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="424">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="262" priority="401">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="261" priority="402">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="260" priority="403">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="259" priority="404">
+    <cfRule type="expression" dxfId="216" priority="405">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="406">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="407">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="408">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="212" priority="401">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="402">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="403">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="404">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="208" priority="397">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="398">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="399">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="400">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="258" priority="397">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="257" priority="398">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="256" priority="399">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="255" priority="400">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="expression" dxfId="254" priority="393">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="253" priority="394">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="252" priority="395">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="251" priority="396">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="250" priority="389">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="249" priority="390">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="248" priority="391">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="247" priority="392">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D40 C41 C43 D44 C47:D47 C42:D42 B12:D13 B33:D33">
-    <cfRule type="expression" dxfId="246" priority="373">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="245" priority="374">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="244" priority="375">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="243" priority="376">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:D36 C35 B35:B36 B9:D10 B17:D17 B19:D19 B21:D21 B4:D4">
-    <cfRule type="expression" dxfId="242" priority="381">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="241" priority="382">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="240" priority="383">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="239" priority="384">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:D5">
-    <cfRule type="expression" dxfId="238" priority="365">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="237" priority="366">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="236" priority="367">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="235" priority="368">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:D6">
-    <cfRule type="expression" dxfId="234" priority="361">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="233" priority="362">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="363">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="231" priority="364">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:D7">
-    <cfRule type="expression" dxfId="230" priority="357">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="229" priority="358">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="359">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="227" priority="360">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:D8">
-    <cfRule type="expression" dxfId="226" priority="353">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="225" priority="354">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="355">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="223" priority="356">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:D11">
-    <cfRule type="expression" dxfId="222" priority="349">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="221" priority="350">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="351">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="219" priority="352">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:D14">
-    <cfRule type="expression" dxfId="218" priority="333">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="217" priority="334">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="335">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="215" priority="336">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:D15">
-    <cfRule type="expression" dxfId="214" priority="329">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="213" priority="330">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="331">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="211" priority="332">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:D16">
-    <cfRule type="expression" dxfId="210" priority="325">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="209" priority="326">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="327">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="207" priority="328">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:D18">
-    <cfRule type="expression" dxfId="206" priority="317">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="318">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="319">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="320">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:D20">
-    <cfRule type="expression" dxfId="202" priority="313">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="201" priority="314">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="315">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="199" priority="316">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:D22">
-    <cfRule type="expression" dxfId="198" priority="305">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="197" priority="306">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="307">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="195" priority="308">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:D23">
-    <cfRule type="expression" dxfId="194" priority="301">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="302">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="303">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="191" priority="304">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:D24">
-    <cfRule type="expression" dxfId="190" priority="297">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="189" priority="298">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="188" priority="299">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="187" priority="300">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:D25">
-    <cfRule type="expression" dxfId="186" priority="293">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="185" priority="294">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="295">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="183" priority="296">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:D32">
-    <cfRule type="expression" dxfId="182" priority="281">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="181" priority="282">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="283">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="179" priority="284">
+    <cfRule type="expression" dxfId="204" priority="393">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="394">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="395">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="396">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="200" priority="389">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="390">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="391">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="392">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47 C41:C43 B12:C13 B33:C33">
+    <cfRule type="expression" dxfId="196" priority="373">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="374">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="375">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="376">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:C36 B9:C10 B17:C17 B19:C19 B21:C21 B4:C4">
+    <cfRule type="expression" dxfId="192" priority="381">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="382">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="383">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="384">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:C5">
+    <cfRule type="expression" dxfId="188" priority="365">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="366">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="367">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="368">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:C6">
+    <cfRule type="expression" dxfId="184" priority="361">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="183" priority="362">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="363">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="364">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:C7">
+    <cfRule type="expression" dxfId="180" priority="357">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="179" priority="358">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="359">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="360">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:C8">
+    <cfRule type="expression" dxfId="176" priority="353">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="354">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="355">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="356">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11">
+    <cfRule type="expression" dxfId="172" priority="349">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="350">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="351">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="352">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:C14">
+    <cfRule type="expression" dxfId="168" priority="333">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="167" priority="334">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="335">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="336">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:C15">
+    <cfRule type="expression" dxfId="164" priority="329">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="330">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="331">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="332">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:C16">
+    <cfRule type="expression" dxfId="160" priority="325">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="326">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="327">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="328">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:C18">
+    <cfRule type="expression" dxfId="156" priority="317">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="318">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="319">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="320">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:C20">
+    <cfRule type="expression" dxfId="152" priority="313">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="314">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="315">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="316">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22">
+    <cfRule type="expression" dxfId="148" priority="305">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="306">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="307">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="308">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="expression" dxfId="144" priority="301">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="302">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="303">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="304">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:C24">
+    <cfRule type="expression" dxfId="140" priority="297">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="298">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="299">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="300">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:C25">
+    <cfRule type="expression" dxfId="136" priority="293">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="294">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="295">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="296">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:C32">
+    <cfRule type="expression" dxfId="132" priority="281">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="282">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="283">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="284">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="178" priority="265">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="266">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="267">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="175" priority="268">
+    <cfRule type="expression" dxfId="128" priority="265">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="266">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="267">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="268">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="174" priority="261">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="173" priority="262">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="263">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="171" priority="264">
+    <cfRule type="expression" dxfId="124" priority="261">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="262">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="263">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="264">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="170" priority="257">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="258">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="259">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="167" priority="260">
+    <cfRule type="expression" dxfId="120" priority="257">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="258">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="259">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="260">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="166" priority="253">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="165" priority="254">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="255">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="163" priority="256">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="expression" dxfId="162" priority="249">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="161" priority="250">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="251">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="159" priority="252">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="158" priority="245">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="157" priority="246">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="247">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="155" priority="248">
+    <cfRule type="expression" dxfId="116" priority="253">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="254">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="255">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="256">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="154" priority="241">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="242">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="243">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="151" priority="244">
+    <cfRule type="expression" dxfId="112" priority="241">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="242">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="243">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="244">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="150" priority="237">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="238">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="239">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="240">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="146" priority="233">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="234">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="235">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="236">
+    <cfRule type="expression" dxfId="108" priority="237">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="238">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="239">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="240">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="142" priority="229">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="230">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="231">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="232">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="138" priority="225">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="226">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="227">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="228">
+    <cfRule type="expression" dxfId="104" priority="229">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="230">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="231">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="232">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="134" priority="221">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="222">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="223">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="131" priority="224">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="130" priority="217">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="218">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="219">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="127" priority="220">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="126" priority="213">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="214">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="215">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="216">
+    <cfRule type="expression" dxfId="100" priority="221">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="222">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="223">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="224">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="122" priority="209">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="210">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="211">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="119" priority="212">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="118" priority="205">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="206">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="207">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="208">
+    <cfRule type="expression" dxfId="96" priority="209">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="210">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="211">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="212">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="114" priority="201">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="202">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="203">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="204">
+    <cfRule type="expression" dxfId="92" priority="201">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="202">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="203">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="204">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="110" priority="197">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="198">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="199">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="200">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="106" priority="193">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="194">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="195">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="196">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="102" priority="189">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="190">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="191">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="192">
+    <cfRule type="expression" dxfId="88" priority="197">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="198">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="199">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="200">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="98" priority="185">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="186">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="187">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="188">
+    <cfRule type="expression" dxfId="84" priority="185">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="186">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="187">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="188">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="94" priority="181">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="182">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="183">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="184">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="90" priority="177">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="178">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="179">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="180">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31:D31">
-    <cfRule type="expression" dxfId="86" priority="161">
-      <formula>$K31="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="162">
-      <formula>$K31="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="163">
-      <formula>$K31="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="164">
-      <formula>$K31="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
-    <cfRule type="expression" dxfId="82" priority="153">
-      <formula>$K27="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="154">
-      <formula>$K27="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="155">
-      <formula>$K27="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="156">
-      <formula>$K27="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="78" priority="149">
-      <formula>$K29="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="150">
-      <formula>$K29="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="151">
-      <formula>$K29="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="152">
-      <formula>$K29="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:D26">
-    <cfRule type="expression" dxfId="74" priority="145">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="146">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="147">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="148">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:D27">
-    <cfRule type="expression" dxfId="70" priority="141">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="142">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="143">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="144">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:D28">
-    <cfRule type="expression" dxfId="66" priority="137">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="138">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="139">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="140">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:D29">
-    <cfRule type="expression" dxfId="62" priority="133">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="134">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="135">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="136">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:D30">
-    <cfRule type="expression" dxfId="58" priority="129">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="130">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="131">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="132">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:D30">
-    <cfRule type="expression" dxfId="54" priority="125">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="126">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="127">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="128">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31:D31">
-    <cfRule type="expression" dxfId="50" priority="121">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="122">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="123">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="124">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:D32">
-    <cfRule type="expression" dxfId="46" priority="117">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="118">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="119">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="120">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:D33">
-    <cfRule type="expression" dxfId="42" priority="113">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="114">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="115">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="116">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:D34">
-    <cfRule type="expression" dxfId="38" priority="109">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="110">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="111">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="112">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="34" priority="37">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="38">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="39">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="40">
-      <formula>#REF!="Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:G3">
-    <cfRule type="expression" dxfId="30" priority="9">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="10">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="11">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="12">
+    <cfRule type="expression" dxfId="80" priority="181">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="182">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="183">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="184">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:C31">
+    <cfRule type="expression" dxfId="76" priority="161">
+      <formula>$J31="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="162">
+      <formula>$J31="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="163">
+      <formula>$J31="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="164">
+      <formula>$J31="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D28">
+    <cfRule type="expression" dxfId="72" priority="153">
+      <formula>$J27="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="154">
+      <formula>$J27="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="155">
+      <formula>$J27="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="156">
+      <formula>$J27="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="68" priority="149">
+      <formula>$J29="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="150">
+      <formula>$J29="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="151">
+      <formula>$J29="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="152">
+      <formula>$J29="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:C26">
+    <cfRule type="expression" dxfId="64" priority="145">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="146">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="147">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="148">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27">
+    <cfRule type="expression" dxfId="60" priority="141">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="142">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="143">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="144">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="expression" dxfId="56" priority="137">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="138">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="139">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="140">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="expression" dxfId="52" priority="133">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="134">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="135">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="136">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C30">
+    <cfRule type="expression" dxfId="48" priority="129">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="130">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="131">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="132">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C30">
+    <cfRule type="expression" dxfId="44" priority="125">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="126">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="127">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="128">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:C31">
+    <cfRule type="expression" dxfId="40" priority="121">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="122">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="123">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="124">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:C32">
+    <cfRule type="expression" dxfId="36" priority="117">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="118">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="119">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="120">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:C33">
+    <cfRule type="expression" dxfId="32" priority="113">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="114">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="115">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="116">
+      <formula>#REF!="Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:C34">
+    <cfRule type="expression" dxfId="28" priority="109">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="110">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="111">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="112">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="26" priority="5">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="6">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="7">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="8">
+    <cfRule type="expression" dxfId="24" priority="5">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="6">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="7">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="8">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="expression" dxfId="22" priority="1">
-      <formula>#REF!="Available"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="2">
-      <formula>#REF!="Open AR"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="3">
-      <formula>#REF!="Quote requested"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="20" priority="1">
+      <formula>#REF!="Available"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="2">
+      <formula>#REF!="Open AR"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="3">
+      <formula>#REF!="Quote requested"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>#REF!="Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6243,28 +5624,28 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -6275,7 +5656,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <f>SUBTOTAL(109,Table2[Total '[CHF']])</f>
@@ -6303,42 +5684,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -6493,7 +5874,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD0598F2-8703-4D71-9CCD-26A12F818E2A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D5BB4C-A89A-4D5F-ABF2-BD1C0CA4A320}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="HelblingDocs"/>

--- a/docs/hardware/Helmoro_BoM_sheet_metals.xlsx
+++ b/docs/hardware/Helmoro_BoM_sheet_metals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHE\Documents\Git_Data\HelMoRo\docs\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA0CD0B-6DA1-47D9-8483-0674C55B1F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16951AF4-02DC-4F47-8D0A-BF2CD0CF969A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D43A7108-50A9-4FCF-900B-676A8BDC7C7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D43A7108-50A9-4FCF-900B-676A8BDC7C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
@@ -124,13 +124,13 @@
     <t>HEL-04-01010-01</t>
   </si>
   <si>
-    <t>Frame Mount</t>
-  </si>
-  <si>
     <t>HEL-04-01000-02</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                   </t>
+    <t xml:space="preserve">Frame Mount                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                          </t>
   </si>
 </sst>
 </file>
@@ -3717,7 +3717,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3756,10 +3756,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>29</v>
@@ -5874,7 +5874,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D5BB4C-A89A-4D5F-ABF2-BD1C0CA4A320}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB80759-B7F6-41CF-8585-25EEEB3E004B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="HelblingDocs"/>

--- a/docs/hardware/Helmoro_BoM_sheet_metals.xlsx
+++ b/docs/hardware/Helmoro_BoM_sheet_metals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHE\Documents\Git_Data\HelMoRo\docs\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16951AF4-02DC-4F47-8D0A-BF2CD0CF969A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED16D04-3F04-4F64-854A-2FA7E7DDFB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D43A7108-50A9-4FCF-900B-676A8BDC7C7C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D43A7108-50A9-4FCF-900B-676A8BDC7C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>QTY</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve">Frame Mount                                                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                          </t>
   </si>
 </sst>
 </file>
@@ -3717,7 +3714,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3725,7 +3722,7 @@
     <col min="1" max="1" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
@@ -3761,9 +3758,7 @@
       <c r="C2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
@@ -5874,7 +5869,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB80759-B7F6-41CF-8585-25EEEB3E004B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F032610B-9349-45C3-A616-060C70BD4476}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="HelblingDocs"/>

--- a/docs/hardware/Helmoro_BoM_sheet_metals.xlsx
+++ b/docs/hardware/Helmoro_BoM_sheet_metals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHE\Documents\Git_Data\HelMoRo\docs\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED16D04-3F04-4F64-854A-2FA7E7DDFB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF72304-DD83-4857-A612-75F120664719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D43A7108-50A9-4FCF-900B-676A8BDC7C7C}"/>
   </bookViews>
@@ -41,12 +41,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>QTY</t>
-  </si>
-  <si>
-    <t>DOCUMENT-NR.</t>
   </si>
   <si>
     <t>DESCRIPTION</t>
@@ -109,9 +106,6 @@
     <t>Total [CHF]</t>
   </si>
   <si>
-    <t>Price per unit (CHF)</t>
-  </si>
-  <si>
     <t xml:space="preserve">[Schickli](https://www.schickli.ch/) </t>
   </si>
   <si>
@@ -128,6 +122,12 @@
   </si>
   <si>
     <t xml:space="preserve">Frame Mount                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PART NR. </t>
+  </si>
+  <si>
+    <t>PRICE PER UNIT (CHF)</t>
   </si>
 </sst>
 </file>
@@ -221,6 +221,25 @@
   </cellStyles>
   <dxfs count="413">
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -477,25 +496,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -3380,18 +3380,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC433D18-8D56-470A-8DB2-FE2100CD4686}" name="Table1" displayName="Table1" ref="A1:F54" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC433D18-8D56-470A-8DB2-FE2100CD4686}" name="Table1" displayName="Table1" ref="A1:F54" totalsRowShown="0" headerRowDxfId="0" dataDxfId="16" totalsRowDxfId="15">
   <autoFilter ref="A1:F54" xr:uid="{AB8CB7B2-62CE-4583-9267-907B832DB447}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F54">
     <sortCondition ref="A1:A54"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8C720362-16ED-4641-BAC4-38765F6008BF}" name="QTY" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{E4EF20A8-BAA7-4285-8E2C-1FF15F4D9DE0}" name="DOCUMENT-NR." dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{7C114C88-4C53-4A01-875E-42C9A5D3836B}" name="DESCRIPTION" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{DC161508-7262-4AC6-90ED-F4CD4C38651A}" name="PRODUCT CODE" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{15467916-B419-479D-A3A9-C6B2B5C762DF}" name="SUPPLIER" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{2349CBB5-C81B-4DFD-9B9F-CC6E1EB0C9BF}" name="Price per unit (CHF)" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8C720362-16ED-4641-BAC4-38765F6008BF}" name="QTY" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{E4EF20A8-BAA7-4285-8E2C-1FF15F4D9DE0}" name="PART NR. " dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{7C114C88-4C53-4A01-875E-42C9A5D3836B}" name="DESCRIPTION" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{DC161508-7262-4AC6-90ED-F4CD4C38651A}" name="PRODUCT CODE" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{15467916-B419-479D-A3A9-C6B2B5C762DF}" name="SUPPLIER" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{2349CBB5-C81B-4DFD-9B9F-CC6E1EB0C9BF}" name="PRICE PER UNIT (CHF)" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3406,9 +3406,9 @@
     <tableColumn id="3" xr3:uid="{A8C4F21C-CD18-4C55-8F37-A63DC3DADA2A}" name="Length [m]"/>
     <tableColumn id="4" xr3:uid="{58450646-C7B3-41F9-9EA9-C5AC13C9F0E1}" name="QTY to ZHR"/>
     <tableColumn id="5" xr3:uid="{7591EFD4-7391-4754-8536-9BFADAB2E4F8}" name="QTY to BOS"/>
-    <tableColumn id="6" xr3:uid="{62F124C5-9852-4F6A-9A5B-7833BB832B2B}" name="TOTAL QTY" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{62F124C5-9852-4F6A-9A5B-7833BB832B2B}" name="TOTAL QTY" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{96FA4321-6955-4909-B76A-703878A5516D}" name="Cost/part [CHF]"/>
-    <tableColumn id="8" xr3:uid="{F9E937AD-E464-40D7-87A7-E2D2618ABCD4}" name="Total [CHF]" totalsRowFunction="sum" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{F9E937AD-E464-40D7-87A7-E2D2618ABCD4}" name="Total [CHF]" totalsRowFunction="sum" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3714,7 +3714,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3733,19 +3733,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3753,14 +3753,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="6">
         <v>100</v>
@@ -3771,16 +3773,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="6">
         <v>80</v>
@@ -5619,28 +5621,28 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5651,7 +5653,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9">
         <f>SUBTOTAL(109,Table2[Total '[CHF']])</f>
@@ -5679,42 +5681,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -5869,7 +5871,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F032610B-9349-45C3-A616-060C70BD4476}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B53035D1-D302-4D83-8261-A56E41BDC18C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="HelblingDocs"/>

--- a/docs/hardware/Helmoro_BoM_sheet_metals.xlsx
+++ b/docs/hardware/Helmoro_BoM_sheet_metals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHE\Documents\Git_Data\HelMoRo\docs\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF72304-DD83-4857-A612-75F120664719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90226AF4-0644-4742-AF73-1ADFF2E17373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D43A7108-50A9-4FCF-900B-676A8BDC7C7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D43A7108-50A9-4FCF-900B-676A8BDC7C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
@@ -221,6 +221,262 @@
   </cellStyles>
   <dxfs count="413">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -240,262 +496,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -3380,18 +3380,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC433D18-8D56-470A-8DB2-FE2100CD4686}" name="Table1" displayName="Table1" ref="A1:F54" totalsRowShown="0" headerRowDxfId="0" dataDxfId="16" totalsRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC433D18-8D56-470A-8DB2-FE2100CD4686}" name="Table1" displayName="Table1" ref="A1:F54" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14">
   <autoFilter ref="A1:F54" xr:uid="{AB8CB7B2-62CE-4583-9267-907B832DB447}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F54">
-    <sortCondition ref="A1:A54"/>
+    <sortCondition ref="B1:B54"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8C720362-16ED-4641-BAC4-38765F6008BF}" name="QTY" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{E4EF20A8-BAA7-4285-8E2C-1FF15F4D9DE0}" name="PART NR. " dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{7C114C88-4C53-4A01-875E-42C9A5D3836B}" name="DESCRIPTION" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{DC161508-7262-4AC6-90ED-F4CD4C38651A}" name="PRODUCT CODE" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{15467916-B419-479D-A3A9-C6B2B5C762DF}" name="SUPPLIER" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{2349CBB5-C81B-4DFD-9B9F-CC6E1EB0C9BF}" name="PRICE PER UNIT (CHF)" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{8C720362-16ED-4641-BAC4-38765F6008BF}" name="QTY" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{E4EF20A8-BAA7-4285-8E2C-1FF15F4D9DE0}" name="PART NR. " dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{7C114C88-4C53-4A01-875E-42C9A5D3836B}" name="DESCRIPTION" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{DC161508-7262-4AC6-90ED-F4CD4C38651A}" name="PRODUCT CODE" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{15467916-B419-479D-A3A9-C6B2B5C762DF}" name="SUPPLIER" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{2349CBB5-C81B-4DFD-9B9F-CC6E1EB0C9BF}" name="PRICE PER UNIT (CHF)" dataDxfId="3" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3406,9 +3406,9 @@
     <tableColumn id="3" xr3:uid="{A8C4F21C-CD18-4C55-8F37-A63DC3DADA2A}" name="Length [m]"/>
     <tableColumn id="4" xr3:uid="{58450646-C7B3-41F9-9EA9-C5AC13C9F0E1}" name="QTY to ZHR"/>
     <tableColumn id="5" xr3:uid="{7591EFD4-7391-4754-8536-9BFADAB2E4F8}" name="QTY to BOS"/>
-    <tableColumn id="6" xr3:uid="{62F124C5-9852-4F6A-9A5B-7833BB832B2B}" name="TOTAL QTY" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{62F124C5-9852-4F6A-9A5B-7833BB832B2B}" name="TOTAL QTY" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{96FA4321-6955-4909-B76A-703878A5516D}" name="Cost/part [CHF]"/>
-    <tableColumn id="8" xr3:uid="{F9E937AD-E464-40D7-87A7-E2D2618ABCD4}" name="Total [CHF]" totalsRowFunction="sum" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{F9E937AD-E464-40D7-87A7-E2D2618ABCD4}" name="Total [CHF]" totalsRowFunction="sum" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3714,7 +3714,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5871,7 +5871,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B53035D1-D302-4D83-8261-A56E41BDC18C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8579BD83-FAFF-49B6-B8B2-E7E18175DBA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="HelblingDocs"/>

--- a/docs/hardware/Helmoro_BoM_sheet_metals.xlsx
+++ b/docs/hardware/Helmoro_BoM_sheet_metals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHE\Documents\Git_Data\HelMoRo\docs\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90226AF4-0644-4742-AF73-1ADFF2E17373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21E2616-5620-4EF0-846B-123354470AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D43A7108-50A9-4FCF-900B-676A8BDC7C7C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D43A7108-50A9-4FCF-900B-676A8BDC7C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
@@ -124,10 +124,10 @@
     <t xml:space="preserve">Frame Mount                                                                     </t>
   </si>
   <si>
-    <t xml:space="preserve">PART NR. </t>
+    <t>PRICE PER UNIT (CHF)</t>
   </si>
   <si>
-    <t>PRICE PER UNIT (CHF)</t>
+    <t>NAME</t>
   </si>
 </sst>
 </file>
@@ -3387,7 +3387,7 @@
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{8C720362-16ED-4641-BAC4-38765F6008BF}" name="QTY" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{E4EF20A8-BAA7-4285-8E2C-1FF15F4D9DE0}" name="PART NR. " dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E4EF20A8-BAA7-4285-8E2C-1FF15F4D9DE0}" name="NAME" dataDxfId="11" totalsRowDxfId="10"/>
     <tableColumn id="3" xr3:uid="{7C114C88-4C53-4A01-875E-42C9A5D3836B}" name="DESCRIPTION" dataDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="5" xr3:uid="{DC161508-7262-4AC6-90ED-F4CD4C38651A}" name="PRODUCT CODE" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="6" xr3:uid="{15467916-B419-479D-A3A9-C6B2B5C762DF}" name="SUPPLIER" dataDxfId="5" totalsRowDxfId="4"/>
@@ -3714,7 +3714,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5871,7 +5871,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8579BD83-FAFF-49B6-B8B2-E7E18175DBA6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F02CD6BC-2DCA-41A9-A4C3-E90EF7C1E6F3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="HelblingDocs"/>
